--- a/public/suspensao.xlsx
+++ b/public/suspensao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\git\insieme-frontend\master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07238938-9773-48F5-8153-0496979950EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B0F01-46EE-4B1C-82F5-08DB4791AE75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AE8CBDD-C50F-457A-A7D1-D19A10B53E6E}"/>
   </bookViews>
@@ -46,38 +46,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>IDENTIFICAÇÃO DA ESTAÇÃO</t>
-  </si>
-  <si>
-    <t>DESIGNAÇÃO CLIENTE</t>
-  </si>
-  <si>
-    <t>ENDEREÇO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>CONTATO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>TELEFONE DO CLIENTE</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
     <r>
-      <t>DESIGNAÇÃO TELESPAZIO</t>
+      <t>TELESPAZIO DESIGNATION/DESIGNAÇÃO TELESPAZIO</t>
     </r>
     <r>
       <rPr>
@@ -89,6 +59,33 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>CLIENT DESIGNATION/DESIGNAÇÃO CLIENTE</t>
+  </si>
+  <si>
+    <t>ADDRESS/ENDEREÇO</t>
+  </si>
+  <si>
+    <t>DISTRICT/BAIRRO</t>
+  </si>
+  <si>
+    <t>CITY/CIDADE</t>
+  </si>
+  <si>
+    <t>STATE/UF</t>
+  </si>
+  <si>
+    <t>ZIPCODE/CEP</t>
+  </si>
+  <si>
+    <t>CLIENT CONTACT/CONTATO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENT PHONE/TELEFONE DO CLIENTE</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS/OBSERVAÇÃO</t>
   </si>
   <si>
     <r>
@@ -110,11 +107,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> campo obrigatório</t>
+      <t xml:space="preserve"> campo obrigatório/ required field</t>
     </r>
   </si>
   <si>
-    <t>LOCALIZAÇÃO DA ESTAÇÃO</t>
+    <t>STATION IDENTIFICATION/IDENTIFICAÇÃO DA ESTAÇÃO</t>
+  </si>
+  <si>
+    <t>STATION LOCALIZATION/LOCALIZAÇÃO DA ESTAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -15736,8 +15736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E53B5-983F-4D18-8948-AD675D1AF7C7}">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15747,8 +15747,8 @@
     <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="50.7109375" style="1" customWidth="1"/>
     <col min="12" max="251" width="10.7109375" style="1"/>
@@ -16449,7 +16449,7 @@
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="10" t="s">
@@ -16463,9 +16463,9 @@
       <c r="J1" s="11"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
